--- a/biology/Botanique/Cinnamomum_glanduliferum/Cinnamomum_glanduliferum.xlsx
+++ b/biology/Botanique/Cinnamomum_glanduliferum/Cinnamomum_glanduliferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cinnamomum glanduliferum, qui porte le nom vernaculaire de Camphrier du Népal[1], est une espèce de plantes à fleurs du genre Cinnamomum et de la famille des Lauraceae.
+Cinnamomum glanduliferum, qui porte le nom vernaculaire de Camphrier du Népal, est une espèce de plantes à fleurs du genre Cinnamomum et de la famille des Lauraceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinnamomum glanduliferum est un arbre à feuillage persistant qui atteint une hauteur d'environ 5 à 20 mètres. Ses feuilles sont brillantes, vert foncé, alternes, pétiolées, de forme elliptique, ovée ou lancéolée et mesurent de 6 à 15 cm de long et de 4 à 6,5 cm de large. Les fleurs sont jaunâtres et petites et mesurent environ 3 mm de large. Les fruits noirs globuleux mesurent jusqu'à 1 cm de diamètre. La période de floraison va de mars à mai, et les fruits mûrissent de juillet à septembre[2]. Les feuilles ont une odeur caractéristique et contiennent du camphre et des huiles volatiles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinnamomum glanduliferum est un arbre à feuillage persistant qui atteint une hauteur d'environ 5 à 20 mètres. Ses feuilles sont brillantes, vert foncé, alternes, pétiolées, de forme elliptique, ovée ou lancéolée et mesurent de 6 à 15 cm de long et de 4 à 6,5 cm de large. Les fleurs sont jaunâtres et petites et mesurent environ 3 mm de large. Les fruits noirs globuleux mesurent jusqu'à 1 cm de diamètre. La période de floraison va de mars à mai, et les fruits mûrissent de juillet à septembre. Les feuilles ont une odeur caractéristique et contiennent du camphre et des huiles volatiles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est indigène en Chine, au Bhoutan, en Inde, en Malaisie, au Myanmar et au Népal[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est indigène en Chine, au Bhoutan, en Inde, en Malaisie, au Myanmar et au Népal.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Chine, Cinnamomum glanduliferum croît dans les forêts décidues des régions montagneuses à une altitude d'environ 1 500 à 2 500 m, et parfois à une altitude plus élevée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, Cinnamomum glanduliferum croît dans les forêts décidues des régions montagneuses à une altitude d'environ 1 500 à 2 500 m, et parfois à une altitude plus élevée.
 </t>
         </is>
       </c>
